--- a/pref_visited.xlsx
+++ b/pref_visited.xlsx
@@ -917,7 +917,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Hyōgo</t>
+          <t>Hyogo</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -947,7 +947,7 @@
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Unknown</t>
         </is>
       </c>
     </row>
@@ -1176,7 +1176,7 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Kōchi</t>
+          <t>Kochi</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -1202,7 +1202,7 @@
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Unknown</t>
         </is>
       </c>
     </row>
@@ -1246,19 +1246,19 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
+          <t>Kyoto</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>京都府</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
           <t>Kyōto</t>
         </is>
       </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>京都府</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>Kyōto</t>
-        </is>
-      </c>
       <c r="D23" t="inlineStr">
         <is>
           <t>京都市</t>
@@ -1276,7 +1276,7 @@
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>Unknown</t>
         </is>
       </c>
     </row>
@@ -1542,7 +1542,7 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Ōita</t>
+          <t>Oita</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -1568,7 +1568,7 @@
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Unknown</t>
         </is>
       </c>
     </row>
@@ -1649,19 +1649,19 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
+          <t>Osaka</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>大阪府</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
           <t>Ōsaka</t>
         </is>
       </c>
-      <c r="B34" t="inlineStr">
-        <is>
-          <t>大阪府</t>
-        </is>
-      </c>
-      <c r="C34" t="inlineStr">
-        <is>
-          <t>Ōsaka</t>
-        </is>
-      </c>
       <c r="D34" t="inlineStr">
         <is>
           <t>大阪市</t>
@@ -1679,7 +1679,7 @@
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>Unknown</t>
         </is>
       </c>
     </row>
@@ -1945,7 +1945,7 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>Tōkyō</t>
+          <t>Tokyo</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
@@ -1975,7 +1975,7 @@
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>Unknown</t>
         </is>
       </c>
     </row>

--- a/pref_visited.xlsx
+++ b/pref_visited.xlsx
@@ -917,7 +917,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Hyogo</t>
+          <t>Hyōgo</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -947,7 +947,7 @@
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>No</t>
         </is>
       </c>
     </row>
@@ -1176,7 +1176,7 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Kochi</t>
+          <t>Kōchi</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -1202,7 +1202,7 @@
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>No</t>
         </is>
       </c>
     </row>
@@ -1246,7 +1246,7 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Kyoto</t>
+          <t>Kyōto</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -1276,7 +1276,7 @@
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>Yes</t>
         </is>
       </c>
     </row>
@@ -1542,7 +1542,7 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Oita</t>
+          <t>Ōita</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -1568,7 +1568,7 @@
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>No</t>
         </is>
       </c>
     </row>
@@ -1649,7 +1649,7 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Osaka</t>
+          <t>Ōsaka</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -1679,7 +1679,7 @@
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>Yes</t>
         </is>
       </c>
     </row>
@@ -1945,7 +1945,7 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>Tokyo</t>
+          <t>Tōkyō</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
@@ -1975,7 +1975,7 @@
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>Yes</t>
         </is>
       </c>
     </row>

--- a/pref_visited.xlsx
+++ b/pref_visited.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G48"/>
+  <dimension ref="A1:F48"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -446,25 +446,20 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Capital</t>
+          <t>Capital.1</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Capital_JPN</t>
+          <t>Region</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>Region</t>
+          <t>Major Island</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>Major Island</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>Visit_hx</t>
         </is>
@@ -483,25 +478,20 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Nagoya</t>
+          <t>名古屋市</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>名古屋市</t>
+          <t>Chūbu</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Chūbu</t>
+          <t>Honshū</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
-        <is>
-          <t>Honshū</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
         <is>
           <t>Yes</t>
         </is>
@@ -520,25 +510,20 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Akita</t>
+          <t>秋田市</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>秋田市</t>
+          <t>Tōhoku</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Tōhoku</t>
+          <t>Honshū</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
-        <is>
-          <t>Honshū</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
         <is>
           <t>No</t>
         </is>
@@ -557,25 +542,20 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Aomori</t>
+          <t>青森市</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>青森市</t>
+          <t>Tōhoku</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Tōhoku</t>
+          <t>Honshū</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
-        <is>
-          <t>Honshū</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
         <is>
           <t>No</t>
         </is>
@@ -594,25 +574,20 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Chiba</t>
+          <t>千葉市</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>千葉市</t>
+          <t>Kantō</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Kantō</t>
+          <t>Honshū</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
-        <is>
-          <t>Honshū</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
         <is>
           <t>Yes</t>
         </is>
@@ -631,12 +606,12 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Matsuyama</t>
+          <t>松山市</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>松山市</t>
+          <t>Shikoku</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -645,11 +620,6 @@
         </is>
       </c>
       <c r="F6" t="inlineStr">
-        <is>
-          <t>Shikoku</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
         <is>
           <t>No</t>
         </is>
@@ -668,25 +638,20 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Fukui</t>
+          <t>福井市</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>福井市</t>
+          <t>Chūbu</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Chūbu</t>
+          <t>Honshū</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
-        <is>
-          <t>Honshū</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
         <is>
           <t>No</t>
         </is>
@@ -705,12 +670,12 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Fukuoka</t>
+          <t>福岡市</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>福岡市</t>
+          <t>Kyūshū</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -719,11 +684,6 @@
         </is>
       </c>
       <c r="F8" t="inlineStr">
-        <is>
-          <t>Kyūshū</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
         <is>
           <t>No</t>
         </is>
@@ -742,25 +702,20 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Fukushima</t>
+          <t>福島市</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>福島市</t>
+          <t>Tōhoku</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Tōhoku</t>
+          <t>Honshū</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
-        <is>
-          <t>Honshū</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
         <is>
           <t>No</t>
         </is>
@@ -779,25 +734,20 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Gifu</t>
+          <t>岐阜市</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>岐阜市</t>
+          <t>Chūbu</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Chūbu</t>
+          <t>Honshū</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
-        <is>
-          <t>Honshū</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
         <is>
           <t>No</t>
         </is>
@@ -816,25 +766,20 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Maebashi</t>
+          <t>前橋市</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>前橋市</t>
+          <t>Kantō</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Kantō</t>
+          <t>Honshū</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
-        <is>
-          <t>Honshū</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
         <is>
           <t>No</t>
         </is>
@@ -853,25 +798,20 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Hiroshima</t>
+          <t>広島市</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>広島市</t>
+          <t>Chūgoku</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Chūgoku</t>
+          <t>Honshū</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
-        <is>
-          <t>Honshū</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
         <is>
           <t>Yes</t>
         </is>
@@ -890,12 +830,12 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Sapporo</t>
+          <t>札幌市</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>札幌市</t>
+          <t>Hokkaidō</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
@@ -904,11 +844,6 @@
         </is>
       </c>
       <c r="F13" t="inlineStr">
-        <is>
-          <t>Hokkaidō</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
         <is>
           <t>Yes</t>
         </is>
@@ -917,7 +852,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Hyōgo</t>
+          <t>Hyogo</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -927,27 +862,22 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Kōbe</t>
+          <t>神戸市</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>神戸市</t>
+          <t>Kansai</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Kansai</t>
+          <t>Honshū</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Honshū</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>No</t>
+          <t>Unknown</t>
         </is>
       </c>
     </row>
@@ -964,25 +894,20 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Mito</t>
+          <t>水戸市</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>水戸市</t>
+          <t>Kantō</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Kantō</t>
+          <t>Honshū</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
-        <is>
-          <t>Honshū</t>
-        </is>
-      </c>
-      <c r="G15" t="inlineStr">
         <is>
           <t>No</t>
         </is>
@@ -1001,25 +926,20 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Kanazawa</t>
+          <t>金沢市</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>金沢市</t>
+          <t>Chūbu</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Chūbu</t>
+          <t>Honshū</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
-        <is>
-          <t>Honshū</t>
-        </is>
-      </c>
-      <c r="G16" t="inlineStr">
         <is>
           <t>No</t>
         </is>
@@ -1038,25 +958,20 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Morioka</t>
+          <t>盛岡市</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>盛岡市</t>
+          <t>Tōhoku</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Tōhoku</t>
+          <t>Honshū</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
-        <is>
-          <t>Honshū</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
         <is>
           <t>No</t>
         </is>
@@ -1075,12 +990,12 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Takamatsu</t>
+          <t>高松市</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>高松市</t>
+          <t>Shikoku</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
@@ -1089,11 +1004,6 @@
         </is>
       </c>
       <c r="F18" t="inlineStr">
-        <is>
-          <t>Shikoku</t>
-        </is>
-      </c>
-      <c r="G18" t="inlineStr">
         <is>
           <t>No</t>
         </is>
@@ -1112,12 +1022,12 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Kagoshima</t>
+          <t>鹿児島市</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>鹿児島市</t>
+          <t>Kyūshū</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
@@ -1126,11 +1036,6 @@
         </is>
       </c>
       <c r="F19" t="inlineStr">
-        <is>
-          <t>Kyūshū</t>
-        </is>
-      </c>
-      <c r="G19" t="inlineStr">
         <is>
           <t>No</t>
         </is>
@@ -1149,25 +1054,20 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Yokohama</t>
+          <t>横浜市</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>横浜市</t>
+          <t>Kantō</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Kantō</t>
+          <t>Honshū</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
-        <is>
-          <t>Honshū</t>
-        </is>
-      </c>
-      <c r="G20" t="inlineStr">
         <is>
           <t>Yes</t>
         </is>
@@ -1176,7 +1076,7 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Kōchi</t>
+          <t>Kochi</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -1184,10 +1084,14 @@
           <t>高知県</t>
         </is>
       </c>
-      <c r="C21" t="inlineStr"/>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>高知市</t>
+        </is>
+      </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>高知市</t>
+          <t>Shikoku</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
@@ -1197,12 +1101,7 @@
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Shikoku</t>
-        </is>
-      </c>
-      <c r="G21" t="inlineStr">
-        <is>
-          <t>No</t>
+          <t>Unknown</t>
         </is>
       </c>
     </row>
@@ -1219,12 +1118,12 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Kumamoto</t>
+          <t>熊本市</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>熊本市</t>
+          <t>Kyūshū</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
@@ -1233,11 +1132,6 @@
         </is>
       </c>
       <c r="F22" t="inlineStr">
-        <is>
-          <t>Kyūshū</t>
-        </is>
-      </c>
-      <c r="G22" t="inlineStr">
         <is>
           <t>Yes</t>
         </is>
@@ -1246,7 +1140,7 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Kyōto</t>
+          <t>Kyoto</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -1256,27 +1150,22 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Kyōto</t>
+          <t>京都市</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>京都市</t>
+          <t>Kansai</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>Kansai</t>
+          <t>Honshū</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Honshū</t>
-        </is>
-      </c>
-      <c r="G23" t="inlineStr">
-        <is>
-          <t>Yes</t>
+          <t>Unknown</t>
         </is>
       </c>
     </row>
@@ -1293,25 +1182,20 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Tsu</t>
+          <t>津市</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>津市</t>
+          <t>Kansai</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>Kansai</t>
+          <t>Honshū</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
-        <is>
-          <t>Honshū</t>
-        </is>
-      </c>
-      <c r="G24" t="inlineStr">
         <is>
           <t>No</t>
         </is>
@@ -1330,27 +1214,22 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Sendai</t>
+          <t>仙台市</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>仙台市</t>
+          <t>Tōhoku</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>Tōhoku</t>
+          <t>Honshū</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Honshū</t>
-        </is>
-      </c>
-      <c r="G25" t="inlineStr">
-        <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
     </row>
@@ -1367,12 +1246,12 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>Miyazaki</t>
+          <t>宮崎市</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>宮崎市</t>
+          <t>Kyūshū</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
@@ -1381,11 +1260,6 @@
         </is>
       </c>
       <c r="F26" t="inlineStr">
-        <is>
-          <t>Kyūshū</t>
-        </is>
-      </c>
-      <c r="G26" t="inlineStr">
         <is>
           <t>Yes</t>
         </is>
@@ -1404,25 +1278,20 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>Nagano</t>
+          <t>長野市</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>長野市</t>
+          <t>Chūbu</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>Chūbu</t>
+          <t>Honshū</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
-        <is>
-          <t>Honshū</t>
-        </is>
-      </c>
-      <c r="G27" t="inlineStr">
         <is>
           <t>Yes</t>
         </is>
@@ -1441,12 +1310,12 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>Nagasaki</t>
+          <t>長崎市</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>長崎市</t>
+          <t>Kyūshū</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
@@ -1455,11 +1324,6 @@
         </is>
       </c>
       <c r="F28" t="inlineStr">
-        <is>
-          <t>Kyūshū</t>
-        </is>
-      </c>
-      <c r="G28" t="inlineStr">
         <is>
           <t>Yes</t>
         </is>
@@ -1478,25 +1342,20 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>Nara</t>
+          <t>奈良市</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>奈良市</t>
+          <t>Kansai</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>Kansai</t>
+          <t>Honshū</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
-        <is>
-          <t>Honshū</t>
-        </is>
-      </c>
-      <c r="G29" t="inlineStr">
         <is>
           <t>Yes</t>
         </is>
@@ -1515,25 +1374,20 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>Niigata</t>
+          <t>新潟市</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>新潟市</t>
+          <t>Chūbu</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>Chūbu</t>
+          <t>Honshū</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
-        <is>
-          <t>Honshū</t>
-        </is>
-      </c>
-      <c r="G30" t="inlineStr">
         <is>
           <t>No</t>
         </is>
@@ -1542,7 +1396,7 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Ōita</t>
+          <t>Oita</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -1550,10 +1404,14 @@
           <t>大分県</t>
         </is>
       </c>
-      <c r="C31" t="inlineStr"/>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>大分市</t>
+        </is>
+      </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>大分市</t>
+          <t>Kyūshū</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
@@ -1563,12 +1421,7 @@
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Kyūshū</t>
-        </is>
-      </c>
-      <c r="G31" t="inlineStr">
-        <is>
-          <t>No</t>
+          <t>Unknown</t>
         </is>
       </c>
     </row>
@@ -1585,25 +1438,20 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>Okayama</t>
+          <t>岡山市</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>岡山市</t>
+          <t>Chūgoku</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>Chūgoku</t>
+          <t>Honshū</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
-        <is>
-          <t>Honshū</t>
-        </is>
-      </c>
-      <c r="G32" t="inlineStr">
         <is>
           <t>No</t>
         </is>
@@ -1622,34 +1470,29 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>Naha</t>
+          <t>那覇市</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>那覇市</t>
+          <t>Kyūshū</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>Kyūshū</t>
+          <t>Ryūkyū Islands</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>Ryūkyū Islands</t>
-        </is>
-      </c>
-      <c r="G33" t="inlineStr">
-        <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Ōsaka</t>
+          <t>Osaka</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -1659,27 +1502,22 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>Ōsaka</t>
+          <t>大阪市</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>大阪市</t>
+          <t>Kansai</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>Kansai</t>
+          <t>Honshū</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>Honshū</t>
-        </is>
-      </c>
-      <c r="G34" t="inlineStr">
-        <is>
-          <t>Yes</t>
+          <t>Unknown</t>
         </is>
       </c>
     </row>
@@ -1696,12 +1534,12 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>Saga</t>
+          <t>佐賀市</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>佐賀市</t>
+          <t>Kyūshū</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
@@ -1710,11 +1548,6 @@
         </is>
       </c>
       <c r="F35" t="inlineStr">
-        <is>
-          <t>Kyūshū</t>
-        </is>
-      </c>
-      <c r="G35" t="inlineStr">
         <is>
           <t>No</t>
         </is>
@@ -1733,25 +1566,20 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>Saitama</t>
+          <t>さいたま市</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>さいたま市</t>
+          <t>Kantō</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>Kantō</t>
+          <t>Honshū</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
-        <is>
-          <t>Honshū</t>
-        </is>
-      </c>
-      <c r="G36" t="inlineStr">
         <is>
           <t>Yes</t>
         </is>
@@ -1770,25 +1598,20 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>Ōtsu</t>
+          <t>大津市</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>大津市</t>
+          <t>Kansai</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>Kansai</t>
+          <t>Honshū</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
-        <is>
-          <t>Honshū</t>
-        </is>
-      </c>
-      <c r="G37" t="inlineStr">
         <is>
           <t>No</t>
         </is>
@@ -1807,25 +1630,20 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>Matsue</t>
+          <t>松江市</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>松江市</t>
+          <t>Chūgoku</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>Chūgoku</t>
+          <t>Honshū</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
-        <is>
-          <t>Honshū</t>
-        </is>
-      </c>
-      <c r="G38" t="inlineStr">
         <is>
           <t>No</t>
         </is>
@@ -1844,25 +1662,20 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>Shizuoka</t>
+          <t>静岡市</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>静岡市</t>
+          <t>Chūbu</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>Chūbu</t>
+          <t>Honshū</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
-        <is>
-          <t>Honshū</t>
-        </is>
-      </c>
-      <c r="G39" t="inlineStr">
         <is>
           <t>No</t>
         </is>
@@ -1881,27 +1694,22 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>Utsunomiya</t>
+          <t>宇都宮市</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>宇都宮市</t>
+          <t>Kantō</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>Kantō</t>
+          <t>Honshū</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>Honshū</t>
-        </is>
-      </c>
-      <c r="G40" t="inlineStr">
-        <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
     </row>
@@ -1918,12 +1726,12 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>Tokushima</t>
+          <t>徳島市</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>徳島市</t>
+          <t>Shikoku</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
@@ -1932,11 +1740,6 @@
         </is>
       </c>
       <c r="F41" t="inlineStr">
-        <is>
-          <t>Shikoku</t>
-        </is>
-      </c>
-      <c r="G41" t="inlineStr">
         <is>
           <t>No</t>
         </is>
@@ -1945,7 +1748,7 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>Tōkyō</t>
+          <t>Tokyo</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
@@ -1955,27 +1758,22 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>Tōkyō[16]</t>
+          <t>東京都</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>東京都</t>
+          <t>Kantō</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>Kantō</t>
+          <t>Honshū</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>Honshū</t>
-        </is>
-      </c>
-      <c r="G42" t="inlineStr">
-        <is>
-          <t>Yes</t>
+          <t>Unknown</t>
         </is>
       </c>
     </row>
@@ -1992,25 +1790,20 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>Tottori</t>
+          <t>鳥取市</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>鳥取市</t>
+          <t>Chūgoku</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>Chūgoku</t>
+          <t>Honshū</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
-        <is>
-          <t>Honshū</t>
-        </is>
-      </c>
-      <c r="G43" t="inlineStr">
         <is>
           <t>No</t>
         </is>
@@ -2029,25 +1822,20 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>Toyama</t>
+          <t>富山市</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>富山市</t>
+          <t>Chūbu</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>Chūbu</t>
+          <t>Honshū</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
-        <is>
-          <t>Honshū</t>
-        </is>
-      </c>
-      <c r="G44" t="inlineStr">
         <is>
           <t>No</t>
         </is>
@@ -2066,25 +1854,20 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>Wakayama</t>
+          <t>和歌山市</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>和歌山市</t>
+          <t>Kansai</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>Kansai</t>
+          <t>Honshū</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
-        <is>
-          <t>Honshū</t>
-        </is>
-      </c>
-      <c r="G45" t="inlineStr">
         <is>
           <t>No</t>
         </is>
@@ -2103,25 +1886,20 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>Yamagata</t>
+          <t>山形市</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>山形市</t>
+          <t>Tōhoku</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>Tōhoku</t>
+          <t>Honshū</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
-        <is>
-          <t>Honshū</t>
-        </is>
-      </c>
-      <c r="G46" t="inlineStr">
         <is>
           <t>No</t>
         </is>
@@ -2140,25 +1918,20 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>Yamaguchi</t>
+          <t>山口市</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>山口市</t>
+          <t>Chūgoku</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>Chūgoku</t>
+          <t>Honshū</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
-        <is>
-          <t>Honshū</t>
-        </is>
-      </c>
-      <c r="G47" t="inlineStr">
         <is>
           <t>Yes</t>
         </is>
@@ -2177,25 +1950,20 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>Kōfu</t>
+          <t>甲府市</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>甲府市</t>
+          <t>Chūbu</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>Chūbu</t>
+          <t>Honshū</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
-        <is>
-          <t>Honshū</t>
-        </is>
-      </c>
-      <c r="G48" t="inlineStr">
         <is>
           <t>No</t>
         </is>

--- a/pref_visited.xlsx
+++ b/pref_visited.xlsx
@@ -877,7 +877,7 @@
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>No</t>
         </is>
       </c>
     </row>
@@ -1101,7 +1101,7 @@
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>No</t>
         </is>
       </c>
     </row>
@@ -1165,7 +1165,7 @@
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>Yes</t>
         </is>
       </c>
     </row>
@@ -1421,7 +1421,7 @@
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>No</t>
         </is>
       </c>
     </row>
@@ -1517,7 +1517,7 @@
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>Yes</t>
         </is>
       </c>
     </row>
@@ -1773,7 +1773,7 @@
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>Yes</t>
         </is>
       </c>
     </row>
